--- a/gameservicedemo/src/main/resources/game_configuration_excel/toolsProperty.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/toolsProperty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -39,10 +39,13 @@
     <t>基础MP</t>
   </si>
   <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>攻击力</t>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>法术攻击</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
   </si>
   <si>
     <t>一点基础攻击力等于一点战力</t>
@@ -63,7 +66,7 @@
     <t>命中</t>
   </si>
   <si>
-    <t>魔法抗性</t>
+    <t>法术防御</t>
   </si>
   <si>
     <t>耐力</t>
@@ -88,6 +91,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -96,7 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,32 +198,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,44 +219,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -193,40 +227,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,25 +244,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,25 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,41 +438,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,16 +487,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,16 +555,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,115 +573,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1108,55 +1111,58 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7">
         <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1170,7 +1176,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1184,7 +1190,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -1198,7 +1204,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1207,6 +1213,20 @@
         <v>100</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
     </row>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/toolsProperty.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/toolsProperty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -27,49 +27,49 @@
     <t>标准属性值</t>
   </si>
   <si>
-    <t>种类</t>
-  </si>
-  <si>
-    <t>属性描述</t>
-  </si>
-  <si>
-    <t>基础HP</t>
-  </si>
-  <si>
-    <t>基础MP</t>
+    <t>HP增益</t>
+  </si>
+  <si>
+    <t>MP增益</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>法术攻击</t>
+  </si>
+  <si>
+    <t>物理穿透</t>
+  </si>
+  <si>
+    <t>法术穿透</t>
   </si>
   <si>
     <t>物理防御</t>
   </si>
   <si>
-    <t>法术攻击</t>
-  </si>
-  <si>
-    <t>物理攻击</t>
-  </si>
-  <si>
-    <t>一点基础攻击力等于一点战力</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>五点力量等一点战力</t>
-  </si>
-  <si>
-    <t>智力</t>
-  </si>
-  <si>
-    <t>精神</t>
-  </si>
-  <si>
-    <t>命中</t>
-  </si>
-  <si>
     <t>法术防御</t>
   </si>
   <si>
-    <t>耐力</t>
+    <t>物理吸血</t>
+  </si>
+  <si>
+    <t>法术吸血</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>冷却缩减</t>
+  </si>
+  <si>
+    <t>暴击效果</t>
+  </si>
+  <si>
+    <t>恢复HP速度</t>
+  </si>
+  <si>
+    <t>恢复MP速度</t>
   </si>
 </sst>
 </file>
@@ -77,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -91,6 +91,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -104,6 +155,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,7 +175,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,87 +227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -218,22 +234,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,25 +244,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,37 +376,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,103 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,39 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,6 +454,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -501,17 +483,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +511,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +555,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,20 +1037,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="32.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:5">
+    <row r="1" ht="20" customHeight="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,174 +1060,161 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>600</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>600</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
